--- a/data/trans_bre/P16A11-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Provincia-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A11-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.493205328121428</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-3.430299154410319</v>
+        <v>-3.430299154410321</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1995620527231924</v>
@@ -649,7 +649,7 @@
         <v>0.2436678365082559</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1641621349212291</v>
+        <v>-0.1641621349212292</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.646090680106533</v>
+        <v>-3.212663127009268</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.6059609106293</v>
+        <v>-2.386851213220976</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.162567309433046</v>
+        <v>-3.029169225407392</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.318805062385188</v>
+        <v>-9.413450271617489</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2374025711076493</v>
+        <v>-0.2299198280997338</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.167777857762463</v>
+        <v>-0.1490284752876233</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2622222394611749</v>
+        <v>-0.2516139833471359</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.371366485548577</v>
+        <v>-0.3674395155503318</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.36628571990701</v>
+        <v>8.487696937862863</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.450931931828848</v>
+        <v>9.274523442697689</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.90659667264252</v>
+        <v>8.124365918684886</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.624424901930246</v>
+        <v>1.46543242793651</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.833572603113769</v>
+        <v>0.8466111284373693</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.025157360816779</v>
+        <v>1.011537606238904</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.026872083657661</v>
+        <v>1.021586186581025</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.09445769225910995</v>
+        <v>0.08910506770698205</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>6.581587968717454</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08963614750458482</v>
+        <v>0.08963614750458759</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.660932538211629</v>
@@ -749,7 +749,7 @@
         <v>0.4111888941115548</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.005935389857217146</v>
+        <v>0.005935389857217331</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.823478890436559</v>
+        <v>3.129808012582934</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.1731464357573858</v>
+        <v>-0.3429652852067595</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.631239300616317</v>
+        <v>1.324437487277208</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.563010777182592</v>
+        <v>-4.413402503220765</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2307849105624487</v>
+        <v>0.2441064413398289</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.01338592236275482</v>
+        <v>-0.02143484243312451</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08608590159855094</v>
+        <v>0.05388078449406295</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2571343816076162</v>
+        <v>-0.2369977653330453</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.71338775405046</v>
+        <v>11.90731278403641</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.15279665721317</v>
+        <v>9.633954258477855</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.45773462045959</v>
+        <v>11.67003653126093</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.834613890054512</v>
+        <v>4.452726879729075</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.413753396108938</v>
+        <v>1.317304933978885</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7392594910220566</v>
+        <v>0.7175518510915996</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8359208590941595</v>
+        <v>0.8088061270533778</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3094352025905149</v>
+        <v>0.3583109385921758</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7909037332785365</v>
+        <v>-0.1474327519719952</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.86261625812037</v>
+        <v>-1.872700899732801</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.163392303834206</v>
+        <v>-5.345834879255831</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.023442085379977</v>
+        <v>-3.060409721256435</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.03646307885054176</v>
+        <v>-0.01133908058694607</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.08495591558543573</v>
+        <v>-0.1025459303569355</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2804660251441511</v>
+        <v>-0.3013922633361268</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1220054840428239</v>
+        <v>-0.1228476570649169</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.98898049446845</v>
+        <v>11.97291137498133</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.14317025312684</v>
+        <v>11.13435942342917</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.348114229708996</v>
+        <v>6.632896216230923</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.471848136577944</v>
+        <v>7.418418180666365</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.088942326939525</v>
+        <v>1.088871044627382</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7325424705345633</v>
+        <v>0.7309666993979818</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5025508461267406</v>
+        <v>0.5448104490615129</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4139810614570234</v>
+        <v>0.4005654433029949</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.760388879448913</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.778273856774558</v>
+        <v>2.778273856774552</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3768384447159679</v>
@@ -949,7 +949,7 @@
         <v>0.283115582187269</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.150192598574277</v>
+        <v>0.1501925985742767</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.554750072066296</v>
+        <v>-0.4035086253863615</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.63012159275977</v>
+        <v>0.2264244914073978</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.194964477840379</v>
+        <v>-1.021917264575889</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.807679511121785</v>
+        <v>-2.680351232324451</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.03117411664026759</v>
+        <v>-0.04811920446570139</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02645741441563749</v>
+        <v>-0.002262139395405519</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.05874977358240104</v>
+        <v>-0.05433382217941134</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1234349281127133</v>
+        <v>-0.1247607588265461</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.08443533263588</v>
+        <v>10.37609581115558</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.00619169426591</v>
+        <v>12.81489121026266</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.36592439205553</v>
+        <v>10.12699259815148</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.712722000077708</v>
+        <v>7.64941454249014</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9545005262822347</v>
+        <v>0.9188014836244717</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7818711506685901</v>
+        <v>0.8413552256903801</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7199930035237594</v>
+        <v>0.6901882025766245</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.52007246535895</v>
+        <v>0.4859821605195876</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>8.464088883117197</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.538821040843057</v>
+        <v>7.538821040843052</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3578335534500263</v>
@@ -1049,7 +1049,7 @@
         <v>0.7782231671204306</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4258763175496872</v>
+        <v>0.4258763175496869</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.634684746756178</v>
+        <v>-3.024534565418761</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.774674655730275</v>
+        <v>3.198926031576871</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.977283343150444</v>
+        <v>1.60131420587926</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.080391480395582</v>
+        <v>2.089522520071754</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2358767199104312</v>
+        <v>-0.3032813657186439</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1165030020105767</v>
+        <v>0.1559007032124237</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0996410936277901</v>
+        <v>0.06992821762810708</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.09185179693362876</v>
+        <v>0.09872740891158313</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.537594640987516</v>
+        <v>9.382104349469593</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>19.29714994034623</v>
+        <v>18.97621981563643</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15.15100447564283</v>
+        <v>15.66309322854102</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.02758537387485</v>
+        <v>13.14157525980557</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.593895933657407</v>
+        <v>1.449624687887227</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.599885068301619</v>
+        <v>1.621810725128586</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.013168664528116</v>
+        <v>2.05496863642589</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.920935747627036</v>
+        <v>0.8817615936923879</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>2.851442494889081</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-3.217123724270804</v>
+        <v>-3.217123724270815</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2426485221161416</v>
@@ -1149,7 +1149,7 @@
         <v>0.2071913590508046</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.1196515677901375</v>
+        <v>-0.1196515677901379</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.624400295072089</v>
+        <v>-3.064692716821402</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-8.787040924267584</v>
+        <v>-7.123476556973893</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-3.175010908464224</v>
+        <v>-3.414698548400529</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-8.767591168691343</v>
+        <v>-8.942047691573348</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1508200350410067</v>
+        <v>-0.1712607985287118</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3208132372901367</v>
+        <v>-0.265058750239359</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1987918365107548</v>
+        <v>-0.2256647983089474</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2887155621638947</v>
+        <v>-0.2947517046269603</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10.63101732828711</v>
+        <v>10.14995968907835</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.630783167861668</v>
+        <v>6.924086803794474</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9.120400872488096</v>
+        <v>8.802649770492167</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.990769964534476</v>
+        <v>2.721481723163531</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8753103431205289</v>
+        <v>0.824675105161727</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3399719638361982</v>
+        <v>0.3589882718946536</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8110560015827992</v>
+        <v>0.7851682404217042</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.08419016847019109</v>
+        <v>0.1236995113201189</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.506508460640087</v>
+        <v>-0.1219608555852559</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4116669635886975</v>
+        <v>0.3325879020707051</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.474411677836288</v>
+        <v>-4.643352954136389</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.718450556709369</v>
+        <v>-1.241518619445053</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.04139584902019238</v>
+        <v>-0.00669327220527729</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.02802117047788521</v>
+        <v>0.01379586583748631</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2675186308401352</v>
+        <v>-0.2771409193703547</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.083599239924396</v>
+        <v>-0.0623534672658183</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.824996645376493</v>
+        <v>8.049563924296846</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.046531752136216</v>
+        <v>8.970085225458879</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.247965910398493</v>
+        <v>3.398211041575866</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.699562190731815</v>
+        <v>6.098804743974943</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.617454006594327</v>
+        <v>0.6497402073177675</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5649837893831762</v>
+        <v>0.5474418469751938</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2515315213251854</v>
+        <v>0.2656915677080761</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.3600610746705504</v>
+        <v>0.3722968281651823</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>2.390543119354499</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3.631517356619338</v>
+        <v>3.63151735661934</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1339420730351227</v>
@@ -1349,7 +1349,7 @@
         <v>0.1477613188653039</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.2069476771369813</v>
+        <v>0.2069476771369815</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-2.087972325164891</v>
+        <v>-1.826518131072984</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.449753635060649</v>
+        <v>-1.218641064372771</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.50532277608766</v>
+        <v>-1.474578554908856</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3326311150720272</v>
+        <v>0.01500952308695802</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1590731589660766</v>
+        <v>-0.1392480125562126</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.09536589177381294</v>
+        <v>-0.07650464679343316</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.08615151439282159</v>
+        <v>-0.08233562609289953</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.014851942532593</v>
+        <v>0.002312201653005516</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>5.188494326742527</v>
+        <v>4.90326410945369</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.731681019790738</v>
+        <v>5.944551582590746</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6.82765730646862</v>
+        <v>6.079270143755532</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7.071605940412717</v>
+        <v>7.192510358461464</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5122517268937996</v>
+        <v>0.486421064189026</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4717179301188466</v>
+        <v>0.4737384191062531</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4826688326979555</v>
+        <v>0.4216987131798602</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4439964018681625</v>
+        <v>0.4648008597913486</v>
       </c>
     </row>
     <row r="28">
@@ -1449,7 +1449,7 @@
         <v>0.197108221746287</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.09307953531244693</v>
+        <v>0.09307953531244695</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.515875681201578</v>
+        <v>2.281610792608495</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.205022531676767</v>
+        <v>2.282058231024174</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.238463261933223</v>
+        <v>1.176736085257842</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.05471005511551329</v>
+        <v>-0.007899207026100127</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1853294709702893</v>
+        <v>0.1695806009148754</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1258998184908237</v>
+        <v>0.1311567637944032</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07970337004650908</v>
+        <v>0.07507846193685361</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.002355584869963384</v>
+        <v>-0.0002569321272969095</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.832235486523983</v>
+        <v>5.730516116120869</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.142765579740521</v>
+        <v>6.04058746925743</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.827295983160906</v>
+        <v>4.628311525741204</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.258211786552313</v>
+        <v>3.234004141591739</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.4945141881415637</v>
+        <v>0.480956934012768</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3930250974992851</v>
+        <v>0.3845389868097857</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3426331930288704</v>
+        <v>0.3264227408758501</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.1815054454862751</v>
+        <v>0.1821816877876441</v>
       </c>
     </row>
     <row r="31">
